--- a/biology/Botanique/Pavillon_d'Amour_de_la_Reine_Jeanne/Pavillon_d'Amour_de_la_Reine_Jeanne.xlsx
+++ b/biology/Botanique/Pavillon_d'Amour_de_la_Reine_Jeanne/Pavillon_d'Amour_de_la_Reine_Jeanne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pavillon_d%27Amour_de_la_Reine_Jeanne</t>
+          <t>Pavillon_d'Amour_de_la_Reine_Jeanne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pavillon d’Amour de la Reine Jeanne du lieu-dit « Le Vallon » aux Baux-de-Provence en Provence est un temple de style arts décoratifs-Renaissance érigé par la baronne des Baux Jeanne de Quiqueran au XVIe siècle. Il est classé aux monuments historiques depuis le 25 novembre 1905[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pavillon d’Amour de la Reine Jeanne du lieu-dit « Le Vallon » aux Baux-de-Provence en Provence est un temple de style arts décoratifs-Renaissance érigé par la baronne des Baux Jeanne de Quiqueran au XVIe siècle. Il est classé aux monuments historiques depuis le 25 novembre 1905.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pavillon_d%27Amour_de_la_Reine_Jeanne</t>
+          <t>Pavillon_d'Amour_de_la_Reine_Jeanne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XVIe siècle, la baronne Jeanne de Quiqueran [2] (épouse d'Honoré des Martins (1567-1582) baron des Baux de 1568 à 1581) (voir liste des seigneurs des Baux) fait ériger ce petit « temple de l’amour romantique » au fond d'un petit jardin d’ornement appartenant à la famille des Baux, orné de cyprès dans le « vallon de la Fontaine » près de l'ancien lavoir aux portes des Baux-de-Provence.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XVIe siècle, la baronne Jeanne de Quiqueran  (épouse d'Honoré des Martins (1567-1582) baron des Baux de 1568 à 1581) (voir liste des seigneurs des Baux) fait ériger ce petit « temple de l’amour romantique » au fond d'un petit jardin d’ornement appartenant à la famille des Baux, orné de cyprès dans le « vallon de la Fontaine » près de l'ancien lavoir aux portes des Baux-de-Provence.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pavillon_d%27Amour_de_la_Reine_Jeanne</t>
+          <t>Pavillon_d'Amour_de_la_Reine_Jeanne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Répliques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1906 l’écrivain Frédéric Mistral fait construire une réplique de ce pavillon pour son tombeau dans lequel il repose depuis 1914 au cimetière de Maillane.
 À la fin des années 1920, Gustave Trasenster, grand industriel originaire du hameau de Desnié dans l'actuelle commune de Theux, beau-fils du banquier Ernest Nagelmackers et directeur général de la Société anonyme d'Ougrée-Marihaye dans le bassin sidérurgique liégeois fait aussi construite une réplique tout à fait identique devant servir de tombeau familial et dans lequel il repose lui-même depuis 1931.
